--- a/test-code-generator/quantitative_analysis_results.xlsx
+++ b/test-code-generator/quantitative_analysis_results.xlsx
@@ -8,16 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="5" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="7" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Summary_All_Configs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Numeric_MEAN" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Numeric_STD" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Numeric_MIN" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Numeric_MAX" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Categorical_Summary" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Success_Rates" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="11" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="9" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Summary_All_Configs" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Numeric_MEAN" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Numeric_STD" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Numeric_MIN" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Numeric_MAX" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Categorical_Summary" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Success_Rates" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -500,7 +504,7 @@
         <v>0.07428420310449788</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2321131094768888</v>
+        <v>0.240177625605921</v>
       </c>
       <c r="G2" t="n">
         <v>0.9111813439813872</v>
@@ -519,19 +523,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0.0753538535441081</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2211114090295048</v>
+        <v>0.2140601269782228</v>
       </c>
       <c r="G3" t="n">
         <v>0.7791074511605334</v>
@@ -562,7 +566,7 @@
         <v>0.09371188840539432</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2545908439628514</v>
+        <v>0.2925655275071551</v>
       </c>
       <c r="G4" t="n">
         <v>0.5017179725538308</v>
@@ -593,7 +597,7 @@
         <v>0.08727842956031195</v>
       </c>
       <c r="F5" t="n">
-        <v>0.292359944254258</v>
+        <v>0.2986099442542581</v>
       </c>
       <c r="G5" t="n">
         <v>0.7108625339169765</v>
@@ -620,9 +624,15 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.07150140594142128</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2263861667619485</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.811598020376281</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -649,7 +659,7 @@
         <v>0.08499342311134304</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2478714723361773</v>
+        <v>0.2701644659667506</v>
       </c>
       <c r="G7" t="n">
         <v>0.7922215881731494</v>
@@ -680,7 +690,7 @@
         <v>0.1012206612714111</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3421459761386313</v>
+        <v>0.3040507380433932</v>
       </c>
       <c r="G8" t="n">
         <v>0.8791427387670114</v>
@@ -711,7 +721,7 @@
         <v>0.08241737011067697</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3281994951562797</v>
+        <v>0.281496198452983</v>
       </c>
       <c r="G9" t="n">
         <v>0.8125267974608104</v>
@@ -735,14 +745,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0.0657276363698262</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3233837799869357</v>
+        <v>0.3070794321608488</v>
       </c>
       <c r="G10" t="n">
         <v>0.8640630327729519</v>
@@ -756,24 +766,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0.1140777195744919</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3186070424084503</v>
+        <v>0.2917253219783428</v>
       </c>
       <c r="G11" t="n">
         <v>0.8815571023392249</v>
@@ -787,24 +797,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0.08515643569758648</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2915847476947995</v>
+        <v>0.2886435712242112</v>
       </c>
       <c r="G12" t="n">
         <v>0.616442653268964</v>
@@ -818,24 +828,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>0.08533426372796167</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3097520437677905</v>
+        <v>0.2891638084736728</v>
       </c>
       <c r="G13" t="n">
         <v>0.5926424133616122</v>
@@ -854,19 +864,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>0.06773015082000793</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3045168564104406</v>
+        <v>0.3253501897437739</v>
       </c>
       <c r="G14" t="n">
         <v>0.799892522827738</v>
@@ -880,24 +890,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>0.0704367794283077</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2797147555867313</v>
+        <v>0.3106136319912257</v>
       </c>
       <c r="G15" t="n">
         <v>0.893653131701414</v>
@@ -911,24 +921,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>0.06420324406224556</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2815672720438374</v>
+        <v>0.2785910815676469</v>
       </c>
       <c r="G16" t="n">
         <v>0.7771577320072967</v>
@@ -959,7 +969,7 @@
         <v>0.107819470771444</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3128949065232223</v>
+        <v>0.295453046058106</v>
       </c>
       <c r="G17" t="n">
         <v>0.382831176269638</v>
@@ -990,7 +1000,7 @@
         <v>0.05489363236837091</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2843140643700365</v>
+        <v>0.2714935515495237</v>
       </c>
       <c r="G18" t="n">
         <v>0.6989282594950832</v>
@@ -1021,7 +1031,7 @@
         <v>0.09147199743600787</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3125600034729146</v>
+        <v>0.3149409558538669</v>
       </c>
       <c r="G19" t="n">
         <v>0.7791800906011492</v>
@@ -1038,7 +1048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1054,112 +1064,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>compilation_success_Yes_count</t>
+          <t>BLEU_score</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>compilation_success_Yes_percent</t>
+          <t>Code_BLEU</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>compilation_success_success_rate</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>compilation_success_total_count</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error_Yes_count</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error_Yes_percent</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error_success_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error_total_count</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass_No_count</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass_No_percent</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass_Yes_count</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass_Yes_percent</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass_success_rate</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass_total_count</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>compilation_success_No_count</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>compilation_success_No_percent</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error_Unknown_count</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error_Unknown_percent</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass_Unknown_count</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass_Unknown_percent</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error_No_count</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error_No_percent</t>
+          <t>cosine_similarity</t>
         </is>
       </c>
     </row>
@@ -1170,253 +1085,125 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>0.08208958696141194</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0.2833647435651028</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E2" t="n">
-        <v>18</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I2" t="n">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>9</v>
-      </c>
-      <c r="K2" t="n">
-        <v>50</v>
-      </c>
-      <c r="L2" t="n">
-        <v>9</v>
-      </c>
-      <c r="M2" t="n">
-        <v>50</v>
-      </c>
-      <c r="N2" t="n">
-        <v>50</v>
-      </c>
-      <c r="O2" t="n">
-        <v>18</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+        <v>0.7491503645019474</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>0.1455803138850221</v>
       </c>
       <c r="C3" t="n">
-        <v>72.22222222222221</v>
+        <v>0.2958474287357252</v>
       </c>
       <c r="D3" t="n">
-        <v>72.22222222222221</v>
-      </c>
-      <c r="E3" t="n">
-        <v>18</v>
-      </c>
-      <c r="F3" t="n">
-        <v>13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>72.22222222222221</v>
-      </c>
-      <c r="H3" t="n">
-        <v>72.22222222222221</v>
-      </c>
-      <c r="I3" t="n">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="L3" t="n">
-        <v>8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="N3" t="n">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="O3" t="n">
-        <v>18</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="T3" t="n">
-        <v>5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+        <v>0.8179216698665777</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>0.1058997501256321</v>
       </c>
       <c r="C4" t="n">
-        <v>83.33333333333334</v>
+        <v>0.2668618193587315</v>
       </c>
       <c r="D4" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="E4" t="n">
-        <v>18</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15</v>
-      </c>
-      <c r="G4" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="H4" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9</v>
-      </c>
-      <c r="M4" t="n">
-        <v>50</v>
-      </c>
-      <c r="N4" t="n">
-        <v>50</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+        <v>0.7987159111592808</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1149808289628087</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2767064125743437</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7489376307551003</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1377655174798085</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2878713615495709</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7445258361420666</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1147316637001267</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.276566300387944</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.748369249747951</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>17</v>
-      </c>
-      <c r="C5" t="n">
-        <v>94.44444444444444</v>
-      </c>
-      <c r="D5" t="n">
-        <v>94.44444444444444</v>
-      </c>
-      <c r="E5" t="n">
-        <v>18</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>18</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>18</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="T5" t="n">
-        <v>18</v>
-      </c>
-      <c r="U5" t="n">
-        <v>100</v>
-      </c>
-      <c r="V5" t="n">
-        <v>16</v>
-      </c>
-      <c r="W5" t="n">
-        <v>88.88888888888889</v>
+      <c r="B8" t="n">
+        <v>0.1080200719536229</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2774179286093486</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7445479849997549</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1455803138850221</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2958474287357252</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8179216698665777</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1446,17 +1233,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>compilation_success</t>
+          <t>BLEU_score</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>execution_without_error</t>
+          <t>Code_BLEU</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>test_pass</t>
+          <t>cosine_similarity</t>
         </is>
       </c>
     </row>
@@ -1467,61 +1254,1292 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>0.01575064894478216</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0.03004260972078816</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>0.1437330457418413</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.22222222222221</v>
+        <v>0.04082585294713778</v>
       </c>
       <c r="C3" t="n">
-        <v>72.22222222222221</v>
+        <v>0.04876478864841175</v>
       </c>
       <c r="D3" t="n">
-        <v>44.44444444444444</v>
+        <v>0.113259665592209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.33333333333334</v>
+        <v>0.03154786191973317</v>
       </c>
       <c r="C4" t="n">
-        <v>83.33333333333334</v>
+        <v>0.04127738263406631</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>0.1098119572158125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.04738963796836864</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.04845724644277718</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1264100282130649</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05102045568687512</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.04830304738904919</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.116007828974211</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.04696485655392792</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.04863377884441385</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1272018309423572</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>0.03750931910954306</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04467819794756157</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1950285470562821</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.04082585294713778</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04876478864841175</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.113259665592209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Configuration</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BLEU_score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Code_BLEU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cosine_similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05489363236837091</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2140601269782228</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.382831176269638</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04826520173294598</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1846728557195388</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5868208288758379</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03821712062510718</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1736050408391118</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6225818585643652</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="B5" t="n">
+        <v>0.03198671405589622</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2120389332380099</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5828405764307693</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.04500653599041117</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1763580320785203</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5760314784493452</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0320489473462495</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2110322481398545</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5828405764307693</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0282416407933045</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1693435919612135</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1235091914340451</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.04826520173294598</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1846728557195388</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5868208288758379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Configuration</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BLEU_score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Code_BLEU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cosine_similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1140777195744919</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3253501897437739</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9111813439813872</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2093277531430746</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3725397253633281</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.931474143556974</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1658425703011601</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3333339974290856</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9081081587271729</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1816204270030371</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3526538105939511</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9252854533554009</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2551855286176491</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4020742385377298</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9083710383433946</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1795648716112284</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3526538105939511</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9252854533554009</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1689174524059005</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3493111683022194</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9635762266826113</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2093277531430746</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3725397253633281</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.931474143556974</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Configuration</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success_Yes_count</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success_Yes_percent</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success_No_count</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success_No_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success_success_rate</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success_total_count</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_Yes_count</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_Yes_percent</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_Unknown_count</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_Unknown_percent</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_No_count</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_No_percent</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_success_rate</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_total_count</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_Unknown_count</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_Unknown_percent</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_No_count</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_No_percent</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_Yes_count</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_Yes_percent</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_success_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_total_count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>72.22222222222221</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="F2" t="n">
+        <v>72.22222222222221</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="N2" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="O2" t="n">
+        <v>18</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="V2" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="W2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="F3" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="O3" t="n">
+        <v>18</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="T3" t="n">
+        <v>7</v>
+      </c>
+      <c r="U3" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="V3" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="W3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="F4" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="N4" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18</v>
+      </c>
+      <c r="P4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="V4" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="W4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>100</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>83.33333333333334</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>83.33333333333334</v>
+      </c>
+      <c r="G6" t="n">
+        <v>18</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="N6" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="O6" t="n">
+        <v>18</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="V6" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="W6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>100</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>100</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
         <v>94.44444444444444</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="F8" t="n">
+        <v>94.44444444444444</v>
+      </c>
+      <c r="G8" t="n">
+        <v>18</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="L8" t="n">
+        <v>16</v>
+      </c>
+      <c r="M8" t="n">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>18</v>
+      </c>
+      <c r="P8" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>100</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="F9" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11</v>
+      </c>
+      <c r="K9" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="N9" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="O9" t="n">
+        <v>18</v>
+      </c>
+      <c r="P9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="V9" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="W9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Configuration</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>72.22222222222221</v>
+      </c>
+      <c r="C2" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.77777777777778</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="C3" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.88888888888889</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="C4" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.11111111111111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.33333333333334</v>
+      </c>
+      <c r="C6" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.77777777777778</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>94.44444444444444</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33.33333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1593,17 +2611,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.06010144320982051</v>
+        <v>0.08434849886304036</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1811463416957392</v>
+        <v>0.2099719997849161</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6465310685918169</v>
+        <v>0.8047694415538189</v>
       </c>
     </row>
     <row r="3">
@@ -1624,17 +2642,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.03821712062510718</v>
+        <v>0.04826520173294598</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1845024767365477</v>
+        <v>0.1846728557195388</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9064146686587096</v>
+        <v>0.9181394228791255</v>
       </c>
     </row>
     <row r="4">
@@ -1655,17 +2673,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1344235686349876</v>
+        <v>0.1572152382704014</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2976579084022617</v>
+        <v>0.2699667541506972</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9081081587271729</v>
+        <v>0.931474143556974</v>
       </c>
     </row>
     <row r="5">
@@ -1676,27 +2694,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1393313676699542</v>
+        <v>0.1699060493429148</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3097550226805456</v>
+        <v>0.3267083384685832</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6903502296784195</v>
+        <v>0.7677125308987536</v>
       </c>
     </row>
     <row r="6">
@@ -1707,22 +2725,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1215889158640626</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2314808735537284</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9214534326435898</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1746,13 +2770,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1143157599296068</v>
+        <v>0.1313600924709181</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2543460058166472</v>
+        <v>0.2729993572537679</v>
       </c>
       <c r="G7" t="n">
-        <v>0.633856676927821</v>
+        <v>0.8600487581918407</v>
       </c>
     </row>
     <row r="8">
@@ -1777,39 +2801,45 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1410223668516979</v>
+        <v>0.1764789212357702</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3309530450481332</v>
+        <v>0.3725397253633281</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8909280568780844</v>
+        <v>0.9243029822767175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>UC3.2_TC1</t>
+          <t>UC3.2.1_TC1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.190015533466694</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3413652379852757</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6918598332955899</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1829,17 +2859,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.092481120453292</v>
+        <v>0.125144981757211</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3155754231902388</v>
+        <v>0.3294628226696942</v>
       </c>
       <c r="G10" t="n">
-        <v>0.893889843775112</v>
+        <v>0.8717237142898642</v>
       </c>
     </row>
     <row r="11">
@@ -1864,13 +2894,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1434735472008356</v>
+        <v>0.2018785171297541</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2875124050411919</v>
+        <v>0.3396793618525686</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9048641310496174</v>
+        <v>0.9154994355453789</v>
       </c>
     </row>
     <row r="12">
@@ -1881,27 +2911,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.09645012114223925</v>
+        <v>0.1389662129565341</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2706015633858573</v>
+        <v>0.3026457252067112</v>
       </c>
       <c r="G12" t="n">
-        <v>0.691370862864612</v>
+        <v>0.699926655141988</v>
       </c>
     </row>
     <row r="13">
@@ -1912,27 +2942,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.08993399093494622</v>
+        <v>0.130915717401245</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3160795643620271</v>
+        <v>0.290721687662401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6850179607518823</v>
+        <v>0.6936901879229446</v>
       </c>
     </row>
     <row r="14">
@@ -1957,13 +2987,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.0981770772598767</v>
+        <v>0.1473384106733774</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3126006577476584</v>
+        <v>0.2932815792964595</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8190121262613472</v>
+        <v>0.8550709593080587</v>
       </c>
     </row>
     <row r="15">
@@ -1974,27 +3004,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1009873426581653</v>
+        <v>0.1498701785195733</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3108005005884987</v>
+        <v>0.2952547686868131</v>
       </c>
       <c r="G15" t="n">
-        <v>0.855512575144713</v>
+        <v>0.8190076714746602</v>
       </c>
     </row>
     <row r="16">
@@ -2005,27 +3035,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1013602641128808</v>
+        <v>0.1348668585801454</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3147706543077511</v>
+        <v>0.3020676661279283</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8587963305103545</v>
+        <v>0.9208390536171729</v>
       </c>
     </row>
     <row r="17">
@@ -2036,27 +3066,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.09578916373048774</v>
+        <v>0.2093277531430746</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2637268263214186</v>
+        <v>0.3325175104416962</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8988336871127024</v>
+        <v>0.9133313774258236</v>
       </c>
     </row>
     <row r="18">
@@ -2081,13 +3111,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.09378996018278257</v>
+        <v>0.1156632959831088</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2846150939773607</v>
+        <v>0.2903995772013246</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6225818585643652</v>
+        <v>0.5868208288758379</v>
       </c>
     </row>
     <row r="19">
@@ -2098,27 +3128,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1658425703011601</v>
+        <v>0.1872952725396275</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2789936256639494</v>
+        <v>0.3395178758176217</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8743277846748765</v>
+        <v>0.6269196287002572</v>
       </c>
     </row>
   </sheetData>
@@ -2194,13 +3224,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.06002309290620027</v>
+        <v>0.06010144320982051</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2194337381960671</v>
+        <v>0.1835656965344488</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8327897064485852</v>
+        <v>0.6465310685918169</v>
       </c>
     </row>
     <row r="3">
@@ -2216,22 +3246,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.04500653599041117</v>
+        <v>0.03821712062510718</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1853323910528792</v>
+        <v>0.1736050408391118</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7577366593274246</v>
+        <v>0.9064146686587096</v>
       </c>
     </row>
     <row r="4">
@@ -2256,13 +3286,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1521646523552269</v>
+        <v>0.1344235686349876</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3382929116673225</v>
+        <v>0.291328794478211</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6362074708931229</v>
+        <v>0.9081081587271729</v>
       </c>
     </row>
     <row r="5">
@@ -2287,13 +3317,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1436891122807403</v>
+        <v>0.1393313676699542</v>
       </c>
       <c r="F5" t="n">
-        <v>0.324213244475365</v>
+        <v>0.3003800226805455</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6800681630750736</v>
+        <v>0.6903502296784195</v>
       </c>
     </row>
     <row r="6">
@@ -2314,12 +3344,18 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09459896723790603</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2390065294631369</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7977744695361679</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2343,13 +3379,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.09413266105154956</v>
+        <v>0.1143157599296068</v>
       </c>
       <c r="F7" t="n">
-        <v>0.291990374480973</v>
+        <v>0.2766389994472205</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6086277154263944</v>
+        <v>0.633856676927821</v>
       </c>
     </row>
     <row r="8">
@@ -2360,59 +3396,53 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2551855286176491</v>
+        <v>0.1410223668516979</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4044551909186823</v>
+        <v>0.3333339974290856</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9083710383433946</v>
+        <v>0.8909280568780844</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>UC3.2.1_TC1</t>
+          <t>UC3.2_TC1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1770994089866544</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3312950345462412</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.6722293099207788</v>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2422,27 +3452,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1401184800643443</v>
+        <v>0.092481120453292</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3653705734394244</v>
+        <v>0.3019884666684997</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8997683740126933</v>
+        <v>0.893889843775112</v>
       </c>
     </row>
     <row r="11">
@@ -2467,13 +3497,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1991022788073536</v>
+        <v>0.1434735472008356</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3156531724943581</v>
+        <v>0.3036414372992564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8915107757736361</v>
+        <v>0.9048641310496174</v>
       </c>
     </row>
     <row r="12">
@@ -2484,27 +3514,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1235704956716785</v>
+        <v>0.09645012114223925</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2780800540824914</v>
+        <v>0.2529545045623279</v>
       </c>
       <c r="G12" t="n">
-        <v>0.657042263976606</v>
+        <v>0.691370862864612</v>
       </c>
     </row>
     <row r="13">
@@ -2515,27 +3545,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1211459598520071</v>
+        <v>0.08993399093494622</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2857766086852866</v>
+        <v>0.2690207408326153</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6668553312442823</v>
+        <v>0.6850179607518823</v>
       </c>
     </row>
     <row r="14">
@@ -2560,13 +3590,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1407571790928713</v>
+        <v>0.0981770772598767</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2894708974557173</v>
+        <v>0.2739101815571823</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6267870708289267</v>
+        <v>0.8190121262613472</v>
       </c>
     </row>
     <row r="15">
@@ -2577,27 +3607,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1285980532910151</v>
+        <v>0.1009873426581653</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2863359343675875</v>
+        <v>0.2630476915997347</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8257477823831507</v>
+        <v>0.855512575144713</v>
       </c>
     </row>
     <row r="16">
@@ -2608,27 +3638,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1350330148043991</v>
+        <v>0.1013602641128808</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3332879548132646</v>
+        <v>0.2879849400220368</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6404359428358747</v>
+        <v>0.8587963305103545</v>
       </c>
     </row>
     <row r="17">
@@ -2639,27 +3669,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.20225288428756</v>
+        <v>0.09578916373048774</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3178429090313465</v>
+        <v>0.2491919426004884</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8891023575668759</v>
+        <v>0.8988336871127024</v>
       </c>
     </row>
     <row r="18">
@@ -2670,27 +3700,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1331351526019934</v>
+        <v>0.09378996018278257</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2719375105021818</v>
+        <v>0.2461535555158222</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5760314784493452</v>
+        <v>0.6225818585643652</v>
       </c>
     </row>
     <row r="19">
@@ -2715,13 +3745,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1497660078850516</v>
+        <v>0.1658425703011601</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2916008267078748</v>
+        <v>0.2908983875687113</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8617551111896915</v>
+        <v>0.8743277846748765</v>
       </c>
     </row>
   </sheetData>
@@ -2730,6 +3760,305 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BLEU_score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Code_BLEU</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cosine_similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>UC1_TC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09449862466783621</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2208019981325697</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.863864912387353</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>UC1_TC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.03198671405589622</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2120389332380099</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6664320858164487</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>UC2.1_TC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1462234729907618</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2628006236281948</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9252854533554009</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>UC2.2_TC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1816204270030371</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.325260689965263</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6415992790103233</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>UC2.3_TC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.08737844542753467</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.274613427374613</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.884630376302008</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>UC2.4_TC1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.127469334499868</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2635909776352395</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5828405764307693</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>UC5_TC1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.09480860612339753</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3018908400269084</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.6947455504531581</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>UC6_TC1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1558610069341379</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3526538105939511</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7321028122853414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2788,22 +4117,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.05823614108818598</v>
+        <v>0.06002309290620027</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1999344490641048</v>
+        <v>0.2137885769057445</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7892237459460902</v>
+        <v>0.8327897064485852</v>
       </c>
     </row>
     <row r="3">
@@ -2819,22 +4148,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.0282416407933045</v>
+        <v>0.04500653599041117</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1680615406791622</v>
+        <v>0.1763580320785203</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9635762266826113</v>
+        <v>0.7577366593274246</v>
       </c>
     </row>
     <row r="4">
@@ -2850,22 +4179,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1406053285037152</v>
+        <v>0.1521646523552269</v>
       </c>
       <c r="F4" t="n">
-        <v>0.298281665178119</v>
+        <v>0.3319637977432719</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1235091914340451</v>
+        <v>0.6362074708931229</v>
       </c>
     </row>
     <row r="5">
@@ -2881,22 +4210,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1689174524059005</v>
+        <v>0.1436891122807403</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3034234982330338</v>
+        <v>0.321088244475365</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6199544459317843</v>
+        <v>0.6800681630750736</v>
       </c>
     </row>
     <row r="6">
@@ -2912,17 +4241,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.07899881608984721</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2411780472015264</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7703984988613429</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2937,22 +4272,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1103712366305038</v>
+        <v>0.09413266105154956</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2542916691963315</v>
+        <v>0.2681050241625016</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7301566224057848</v>
+        <v>0.6086277154263944</v>
       </c>
     </row>
     <row r="8">
@@ -2968,22 +4303,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1568990805389059</v>
+        <v>0.2551855286176491</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3374064063974575</v>
+        <v>0.4020742385377298</v>
       </c>
       <c r="G8" t="n">
-        <v>0.842779073338177</v>
+        <v>0.9083710383433946</v>
       </c>
     </row>
     <row r="9">
@@ -3008,13 +4343,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1551375132818893</v>
+        <v>0.1770994089866544</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3212737201289815</v>
+        <v>0.3065697598209665</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6489182458047602</v>
+        <v>0.6722293099207788</v>
       </c>
     </row>
     <row r="10">
@@ -3030,22 +4365,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.08417659076403987</v>
+        <v>0.1401184800643443</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2955590949466989</v>
+        <v>0.3110227473524679</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8960831210606059</v>
+        <v>0.8997683740126933</v>
       </c>
     </row>
     <row r="11">
@@ -3056,12 +4391,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3070,13 +4405,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1323595477880339</v>
+        <v>0.1991022788073536</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2931946240593533</v>
+        <v>0.3102768284083366</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9105266699298646</v>
+        <v>0.8915107757736361</v>
       </c>
     </row>
     <row r="12">
@@ -3101,13 +4436,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.09528338574839093</v>
+        <v>0.1235704956716785</v>
       </c>
       <c r="F12" t="n">
-        <v>0.28781606854941</v>
+        <v>0.2751388776119031</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6802301810815002</v>
+        <v>0.657042263976606</v>
       </c>
     </row>
     <row r="13">
@@ -3132,13 +4467,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.09175487238184334</v>
+        <v>0.1211459598520071</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2733221574515677</v>
+        <v>0.2740119028029336</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6679287428194797</v>
+        <v>0.6668553312442823</v>
       </c>
     </row>
     <row r="14">
@@ -3163,13 +4498,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.08676156056606386</v>
+        <v>0.1407571790928713</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2865468139027426</v>
+        <v>0.2924470879319078</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7093355249669493</v>
+        <v>0.6267870708289267</v>
       </c>
     </row>
     <row r="15">
@@ -3194,13 +4529,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.08000260405525979</v>
+        <v>0.1285980532910151</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2426037527784093</v>
+        <v>0.2891449231316325</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9040031457786135</v>
+        <v>0.8257477823831507</v>
       </c>
     </row>
     <row r="16">
@@ -3216,7 +4551,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3225,13 +4560,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.08465585553067155</v>
+        <v>0.1350330148043991</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2931400454222368</v>
+        <v>0.2767403357656455</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8916641153193877</v>
+        <v>0.6404359428358747</v>
       </c>
     </row>
     <row r="17">
@@ -3247,22 +4582,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1407452350768398</v>
+        <v>0.20225288428756</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2878061442228339</v>
+        <v>0.3120289555429744</v>
       </c>
       <c r="G17" t="n">
-        <v>0.897492258943114</v>
+        <v>0.8891023575668759</v>
       </c>
     </row>
     <row r="18">
@@ -3273,12 +4608,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3287,13 +4622,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.09559305874661032</v>
+        <v>0.1331351526019934</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2861549013068754</v>
+        <v>0.3071939207585921</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5799204178006125</v>
+        <v>0.5760314784493452</v>
       </c>
     </row>
     <row r="19">
@@ -3309,618 +4644,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1387763462793593</v>
+        <v>0.1497660078850516</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3143198975649131</v>
+        <v>0.2725532076602558</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6853683780231075</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AI5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Configuration</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BLEU_score_mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Code_BLEU_mean</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>cosine_similarity_mean</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>BLEU_score_std</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Code_BLEU_std</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cosine_similarity_std</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>BLEU_score_min</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Code_BLEU_min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>cosine_similarity_min</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>BLEU_score_max</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Code_BLEU_max</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cosine_similarity_max</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>compilation_success_Yes_count</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>compilation_success_Yes_percent</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>compilation_success_success_rate</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>compilation_success_total_count</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error_Yes_count</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error_Yes_percent</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error_success_rate</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error_total_count</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass_No_count</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass_No_percent</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass_Yes_count</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass_Yes_percent</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass_success_rate</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass_total_count</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>compilation_success_No_count</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>compilation_success_No_percent</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error_Unknown_count</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error_Unknown_percent</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass_Unknown_count</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass_Unknown_percent</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error_No_count</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error_No_percent</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.08271242113905845</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2904286895658676</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7454769729799278</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01600528381261872</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.03453674817974294</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1472831242530836</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.05489363236837091</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.2211114090295048</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.382831176269638</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1140777195744919</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.3421459761386313</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9111813439813872</v>
-      </c>
-      <c r="N2" t="n">
-        <v>18</v>
-      </c>
-      <c r="O2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>18</v>
-      </c>
-      <c r="R2" t="n">
-        <v>18</v>
-      </c>
-      <c r="S2" t="n">
-        <v>100</v>
-      </c>
-      <c r="T2" t="n">
-        <v>100</v>
-      </c>
-      <c r="U2" t="n">
-        <v>18</v>
-      </c>
-      <c r="V2" t="n">
-        <v>9</v>
-      </c>
-      <c r="W2" t="n">
-        <v>50</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.106606049056115</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2821023196853642</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7987747512607255</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.03244337841282056</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.04434134473086152</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1134130249586964</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.03821712062510718</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1811463416957392</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6225818585643652</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1658425703011601</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.3309530450481332</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9081081587271729</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>72.22222222222221</v>
-      </c>
-      <c r="P3" t="n">
-        <v>72.22222222222221</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>18</v>
-      </c>
-      <c r="R3" t="n">
-        <v>13</v>
-      </c>
-      <c r="S3" t="n">
-        <v>72.22222222222221</v>
-      </c>
-      <c r="T3" t="n">
-        <v>72.22222222222221</v>
-      </c>
-      <c r="U3" t="n">
-        <v>18</v>
-      </c>
-      <c r="V3" t="n">
-        <v>5</v>
-      </c>
-      <c r="W3" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1412223822674533</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3017864309951214</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7430039148056385</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.05037100079749553</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.05085246853242501</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1193927624697835</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.04500653599041117</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1853323910528792</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5760314784493452</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.2551855286176491</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.4044551909186823</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9083710383433946</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15</v>
-      </c>
-      <c r="O4" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="P4" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>18</v>
-      </c>
-      <c r="R4" t="n">
-        <v>15</v>
-      </c>
-      <c r="S4" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="T4" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="U4" t="n">
-        <v>18</v>
-      </c>
-      <c r="V4" t="n">
-        <v>6</v>
-      </c>
-      <c r="W4" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1087363205987952</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2790080264166018</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7376864768980288</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.03853663162482749</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.04248480552246491</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1987787260761697</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0282416407933045</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.1680615406791622</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.1235091914340451</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1689174524059005</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.3374064063974575</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9635762266826113</v>
-      </c>
-      <c r="N5" t="n">
-        <v>17</v>
-      </c>
-      <c r="O5" t="n">
-        <v>94.44444444444444</v>
-      </c>
-      <c r="P5" t="n">
-        <v>94.44444444444444</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>18</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>18</v>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>88.88888888888889</v>
+        <v>0.8617551111896915</v>
       </c>
     </row>
   </sheetData>
@@ -3934,7 +4673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3943,22 +4682,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Configuration</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>compilation_success</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>BLEU_score</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Code_BLEU</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>cosine_similarity</t>
         </is>
@@ -3967,65 +4716,249 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.08271242113905845</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2904286895658676</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7454769729799278</v>
+          <t>UC1_TC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09449862466783621</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2208019981325697</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.863864912387353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.106606049056115</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2821023196853642</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7987747512607255</v>
+          <t>UC1_TC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0320489473462495</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2110322481398545</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6722729327723853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1412223822674533</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3017864309951214</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7430039148056385</v>
+          <t>UC2.1_TC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1462234729907618</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2628006236281948</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9252854533554009</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1087363205987952</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2790080264166018</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7376864768980288</v>
+          <t>UC2.2_TC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1795648716112284</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3251464775722211</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6312113839971921</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>UC2.3_TC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.08737844542753467</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.274613427374613</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.884630376302008</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>UC2.4_TC1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.127469334499868</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2635909776352395</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5828405764307693</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>UC5_TC1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.09480860612339753</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3018908400269084</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.6947455504531581</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>UC6_TC1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1558610069341379</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3526538105939511</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7321028122853414</v>
       </c>
     </row>
   </sheetData>
@@ -4039,7 +4972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4048,22 +4981,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Configuration</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>compilation_success</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>BLEU_score</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Code_BLEU</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>cosine_similarity</t>
         </is>
@@ -4072,65 +5015,559 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.01600528381261872</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.03453674817974294</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1472831242530836</v>
+          <t>UC1_TC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.05823614108818598</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1983215458382984</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7892237459460902</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.03244337841282056</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.04434134473086152</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1134130249586964</v>
+          <t>UC1_TC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0282416407933045</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1693435919612135</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9635762266826113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.05037100079749553</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05085246853242501</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1193927624697835</v>
+          <t>UC2.1_TC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1406053285037152</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2951171082160937</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1235091914340451</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.03853663162482749</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04248480552246491</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1987787260761697</v>
+          <t>UC2.2_TC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1689174524059005</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3284234982330339</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6199544459317843</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>UC2.3_TC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09584384498569481</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2743266267075989</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8611936227291009</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>UC2.4_TC1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1103712366305038</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2463298857568411</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7301566224057848</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>UC3.1_TC1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1568990805389059</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3493111683022194</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.842779073338177</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>UC3.2.1_TC1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1551375132818893</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2855594344146958</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6489182458047602</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>UC3.3_TC1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.08417659076403987</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2819721384249597</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8960831210606059</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>UC3.4.1_TC1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1323595477880339</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2985709681453748</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9105266699298646</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>UC3.4.2_TC1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.09528338574839093</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2466395979611747</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.6802301810815002</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>UC3.4.2_TC2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.09175487238184334</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2556750986280383</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6679287428194797</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>UC3.4.3_TC1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.08676156056606386</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2865468139027426</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7093355249669493</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>UC3.4.4_TC1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.08000260405525979</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2538397078345891</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9040031457786135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>UC3.4.5_TC1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.08465585553067155</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3288543311365225</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8916641153193877</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>UC3.4_TC1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1407452350768398</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2878061442228339</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.897492258943114</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>UC5_TC1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.09559305874661032</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2925651577171319</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5799204178006125</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>UC6_TC1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1387763462793593</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3143198975649131</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.6853683780231075</v>
       </c>
     </row>
   </sheetData>
@@ -4144,7 +5581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4153,22 +5590,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Configuration</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>compilation_success</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>BLEU_score</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Code_BLEU</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>cosine_similarity</t>
         </is>
@@ -4177,65 +5624,559 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.05489363236837091</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2211114090295048</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.382831176269638</v>
+          <t>UC1_TC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.08434849886304036</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2099719997849161</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8047694415538189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.03821712062510718</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1811463416957392</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6225818585643652</v>
+          <t>UC1_TC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.04826520173294598</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1846728557195388</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9181394228791255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.04500653599041117</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1853323910528792</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5760314784493452</v>
+          <t>UC2.1_TC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1572152382704014</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2699667541506972</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.931474143556974</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0282416407933045</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1680615406791622</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1235091914340451</v>
+          <t>UC2.2_TC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1699060493429148</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3267083384685832</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7677125308987536</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>UC2.3_TC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1215889158640626</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2314808735537284</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9214534326435898</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>UC2.4_TC1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1313600924709181</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2729993572537679</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8600487581918407</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>UC3.1_TC1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1764789212357702</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3725397253633281</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9243029822767175</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>UC3.2.1_TC1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.190015533466694</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3413652379852757</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6918598332955899</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>UC3.3_TC1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.125144981757211</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3294628226696942</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8717237142898642</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>UC3.4.1_TC1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2018785171297541</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3396793618525686</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9154994355453789</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>UC3.4.2_TC1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1389662129565341</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3026457252067112</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.699926655141988</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>UC3.4.2_TC2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.130915717401245</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.290721687662401</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6936901879229446</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>UC3.4.3_TC1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1473384106733774</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2932815792964595</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8550709593080587</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>UC3.4.4_TC1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1498701785195733</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2952547686868131</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8190076714746602</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>UC3.4.5_TC1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1348668585801454</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3020676661279283</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9208390536171729</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>UC3.4_TC1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2093277531430746</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3325175104416962</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9133313774258236</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>UC5_TC1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1156632959831088</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2903995772013246</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5868208288758379</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>UC6_TC1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1872952725396275</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3395178758176217</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.6269196287002572</v>
       </c>
     </row>
   </sheetData>
@@ -4249,7 +6190,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4265,17 +6206,172 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>BLEU_score</t>
+          <t>BLEU_score_mean</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Code_BLEU</t>
+          <t>Code_BLEU_mean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cosine_similarity</t>
+          <t>cosine_similarity_mean</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BLEU_score_std</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Code_BLEU_std</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cosine_similarity_std</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>BLEU_score_min</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Code_BLEU_min</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>cosine_similarity_min</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>BLEU_score_max</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Code_BLEU_max</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cosine_similarity_max</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success_Yes_count</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success_Yes_percent</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success_No_count</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success_No_percent</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success_success_rate</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success_total_count</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_Yes_count</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_Yes_percent</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_Unknown_count</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_Unknown_percent</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_No_count</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_No_percent</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_success_rate</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_total_count</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_Unknown_count</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_Unknown_percent</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_No_count</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_No_percent</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_Yes_count</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_Yes_percent</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_success_rate</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_total_count</t>
         </is>
       </c>
     </row>
@@ -4286,61 +6382,809 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.08208958696141194</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2833647435651028</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7491503645019474</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01575064894478216</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03004260972078816</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1437330457418413</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.05489363236837091</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2140601269782228</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.382831176269638</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.1140777195744919</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.3421459761386313</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="L2" t="n">
+        <v>0.3253501897437739</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.9111813439813872</v>
+      </c>
+      <c r="N2" t="n">
+        <v>13</v>
+      </c>
+      <c r="O2" t="n">
+        <v>72.22222222222221</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="R2" t="n">
+        <v>72.22222222222221</v>
+      </c>
+      <c r="S2" t="n">
+        <v>18</v>
+      </c>
+      <c r="T2" t="n">
+        <v>11</v>
+      </c>
+      <c r="U2" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1658425703011601</v>
+        <v>0.1455803138850221</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3309530450481332</v>
+        <v>0.2958474287357252</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9081081587271729</v>
+        <v>0.8179216698665777</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.04082585294713778</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.04876478864841175</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.113259665592209</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.04826520173294598</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1846728557195388</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5868208288758379</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2093277531430746</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3725397253633281</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.931474143556974</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="R3" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="S3" t="n">
+        <v>18</v>
+      </c>
+      <c r="T3" t="n">
+        <v>8</v>
+      </c>
+      <c r="U3" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="V3" t="n">
+        <v>10</v>
+      </c>
+      <c r="W3" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2551855286176491</v>
+        <v>0.1058997501256321</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4044551909186823</v>
+        <v>0.2668618193587315</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9083710383433946</v>
+        <v>0.7987159111592808</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.03154786191973317</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04127738263406631</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1098119572158125</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.03821712062510718</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1736050408391118</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6225818585643652</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1658425703011601</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3333339974290856</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9081081587271729</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="R4" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="S4" t="n">
+        <v>18</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7</v>
+      </c>
+      <c r="U4" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="V4" t="n">
+        <v>10</v>
+      </c>
+      <c r="W4" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1149808289628087</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2767064125743437</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7489376307551003</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.04738963796836864</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04845724644277718</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1264100282130649</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.03198671405589622</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2120389332380099</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5828405764307693</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1816204270030371</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3526538105939511</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9252854533554009</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>100</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>100</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1377655174798085</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2878713615495709</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7445258361420666</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.05102045568687512</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04830304738904919</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.116007828974211</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.04500653599041117</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1763580320785203</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5760314784493452</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2551855286176491</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4020742385377298</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.9083710383433946</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>83.33333333333334</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="R6" t="n">
+        <v>83.33333333333334</v>
+      </c>
+      <c r="S6" t="n">
+        <v>18</v>
+      </c>
+      <c r="T6" t="n">
+        <v>10</v>
+      </c>
+      <c r="U6" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1147316637001267</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.276566300387944</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.748369249747951</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.04696485655392792</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04863377884441385</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1272018309423572</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0320489473462495</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2110322481398545</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5828405764307693</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1795648716112284</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.3526538105939511</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.9252854533554009</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>100</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>100</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B8" t="n">
+        <v>0.1080200719536229</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2774179286093486</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7445479849997549</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03750931910954306</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04467819794756157</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1950285470562821</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0282416407933045</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1693435919612135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1235091914340451</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.1689174524059005</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.3374064063974575</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="L8" t="n">
+        <v>0.3493111683022194</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.9635762266826113</v>
+      </c>
+      <c r="N8" t="n">
+        <v>17</v>
+      </c>
+      <c r="O8" t="n">
+        <v>94.44444444444444</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="R8" t="n">
+        <v>94.44444444444444</v>
+      </c>
+      <c r="S8" t="n">
+        <v>18</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="X8" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1455803138850221</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2958474287357252</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8179216698665777</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.04082585294713778</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.04876478864841175</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.113259665592209</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.04826520173294598</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1846728557195388</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5868208288758379</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2093277531430746</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3725397253633281</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.931474143556974</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="P9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="R9" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="S9" t="n">
+        <v>18</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="V9" t="n">
+        <v>11</v>
+      </c>
+      <c r="W9" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/test-code-generator/quantitative_analysis_results.xlsx
+++ b/test-code-generator/quantitative_analysis_results.xlsx
@@ -8,13 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="11" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="9" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="5" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="6" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="7" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="9" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="11" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Summary_All_Configs" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Numeric_MEAN" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Numeric_STD" sheetId="11" state="visible" r:id="rId11"/>
@@ -1048,7 +1048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,18 +1097,12 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1455803138850221</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2958474287357252</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8179216698665777</v>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1193,18 +1187,64 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>0.1455803138850221</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>0.2958474287357252</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.8179216698665777</v>
       </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1455803138850221</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2958474287357252</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8179216698665777</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1217,7 +1257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1266,18 +1306,12 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.04082585294713778</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.04876478864841175</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.113259665592209</v>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1362,18 +1396,64 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>0.04082585294713778</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>0.04876478864841175</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.113259665592209</v>
       </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.04082585294713778</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04876478864841175</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.113259665592209</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1386,7 +1466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1435,18 +1515,12 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.04826520173294598</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1846728557195388</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5868208288758379</v>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1531,18 +1605,64 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>0.04826520173294598</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>0.1846728557195388</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.5868208288758379</v>
       </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.04826520173294598</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1846728557195388</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5868208288758379</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1555,7 +1675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1604,18 +1724,12 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2093277531430746</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3725397253633281</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.931474143556974</v>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1700,18 +1814,64 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>0.2093277531430746</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>0.3725397253633281</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.931474143556974</v>
       </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.2093277531430746</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3725397253633281</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.931474143556974</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1724,7 +1884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1765,85 +1925,115 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>compilation_success_success_count</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success_failure_count</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>compilation_success_total_count</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>execution_without_error_Yes_count</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>execution_without_error_Yes_percent</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>execution_without_error_Unknown_count</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>execution_without_error_Unknown_percent</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>execution_without_error_No_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>execution_without_error_No_percent</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>execution_without_error_success_rate</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_success_count</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_failure_count</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>execution_without_error_total_count</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>test_pass_Unknown_count</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>test_pass_Unknown_percent</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>test_pass_No_count</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>test_pass_No_percent</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>test_pass_Yes_count</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>test_pass_Yes_percent</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>test_pass_success_rate</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_success_count</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_failure_count</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>test_pass_total_count</t>
         </is>
@@ -1871,124 +2061,156 @@
         <v>72.22222222222221</v>
       </c>
       <c r="G2" t="n">
+        <v>13</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
         <v>18</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>11</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>61.11111111111111</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>5</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>2</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>61.11111111111111</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
+        <v>11</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
         <v>18</v>
       </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>7</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="U2" t="n">
         <v>38.88888888888889</v>
       </c>
-      <c r="R2" t="n">
+      <c r="V2" t="n">
         <v>6</v>
       </c>
-      <c r="S2" t="n">
+      <c r="W2" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="T2" t="n">
+      <c r="X2" t="n">
         <v>5</v>
       </c>
-      <c r="U2" t="n">
+      <c r="Y2" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Z2" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC2" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="T3" t="n">
-        <v>7</v>
-      </c>
-      <c r="U3" t="n">
-        <v>38.88888888888889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>38.88888888888889</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2013,54 +2235,72 @@
         <v>44.44444444444444</v>
       </c>
       <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
         <v>18</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>7</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>38.88888888888889</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>10</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>55.55555555555556</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>5.555555555555555</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>38.88888888888889</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
+        <v>7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
         <v>18</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>11</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="U4" t="n">
         <v>61.11111111111111</v>
       </c>
-      <c r="R4" t="n">
+      <c r="V4" t="n">
         <v>5</v>
       </c>
-      <c r="S4" t="n">
+      <c r="W4" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="T4" t="n">
+      <c r="X4" t="n">
         <v>2</v>
       </c>
-      <c r="U4" t="n">
+      <c r="Y4" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="V4" t="n">
+      <c r="Z4" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC4" t="n">
         <v>18</v>
       </c>
     </row>
@@ -2084,36 +2324,54 @@
       <c r="G5" t="n">
         <v>8</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>8</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>100</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>8</v>
       </c>
-      <c r="P5" t="n">
+      <c r="S5" t="n">
         <v>8</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="T5" t="n">
+        <v>8</v>
+      </c>
+      <c r="U5" t="n">
         <v>100</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2139,54 +2397,72 @@
         <v>83.33333333333334</v>
       </c>
       <c r="G6" t="n">
+        <v>15</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
         <v>18</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>10</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>55.55555555555556</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>3</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>16.66666666666666</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>5</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>55.55555555555556</v>
       </c>
-      <c r="O6" t="n">
-        <v>18</v>
-      </c>
-      <c r="P6" t="n">
-        <v>8</v>
-      </c>
       <c r="Q6" t="n">
-        <v>44.44444444444444</v>
+        <v>10</v>
       </c>
       <c r="R6" t="n">
         <v>5</v>
       </c>
       <c r="S6" t="n">
+        <v>18</v>
+      </c>
+      <c r="T6" t="n">
+        <v>8</v>
+      </c>
+      <c r="U6" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W6" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="T6" t="n">
+      <c r="X6" t="n">
         <v>5</v>
       </c>
-      <c r="U6" t="n">
+      <c r="Y6" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="V6" t="n">
+      <c r="Z6" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AA6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC6" t="n">
         <v>18</v>
       </c>
     </row>
@@ -2210,36 +2486,54 @@
       <c r="G7" t="n">
         <v>8</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>8</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>100</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>8</v>
       </c>
-      <c r="P7" t="n">
+      <c r="S7" t="n">
         <v>8</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="T7" t="n">
+        <v>8</v>
+      </c>
+      <c r="U7" t="n">
         <v>100</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2265,112 +2559,484 @@
         <v>94.44444444444444</v>
       </c>
       <c r="G8" t="n">
+        <v>17</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>18</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
         <v>2</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>16</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>88.88888888888889</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>16</v>
+      </c>
+      <c r="S8" t="n">
         <v>18</v>
       </c>
-      <c r="P8" t="n">
+      <c r="T8" t="n">
         <v>18</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="U8" t="n">
         <v>100</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>38.88888888888889</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>61.11111111111111</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>38.88888888888889</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11</v>
+      </c>
+      <c r="I10" t="n">
         <v>18</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J10" t="n">
         <v>6</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K10" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L10" t="n">
         <v>11</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M10" t="n">
         <v>61.11111111111111</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O10" t="n">
         <v>5.555555555555555</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P10" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
         <v>18</v>
       </c>
-      <c r="P9" t="n">
+      <c r="T10" t="n">
         <v>12</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="U10" t="n">
         <v>66.66666666666666</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="n">
         <v>6</v>
       </c>
-      <c r="U9" t="n">
+      <c r="Y10" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="V9" t="n">
+      <c r="Z10" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AA10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="F12" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>18</v>
+      </c>
+      <c r="T12" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2384,7 +3050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2433,17 +3099,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38.88888888888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2529,17 +3195,81 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>38.88888888888889</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="C12" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="D12" t="n">
+        <v>38.88888888888889</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2611,17 +3341,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.08434849886304036</v>
+        <v>0.06010144320982051</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2099719997849161</v>
+        <v>0.1835656965344488</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8047694415538189</v>
+        <v>0.6465310685918169</v>
       </c>
     </row>
     <row r="3">
@@ -2637,22 +3367,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.04826520173294598</v>
+        <v>0.03821712062510718</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1846728557195388</v>
+        <v>0.1736050408391118</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9181394228791255</v>
+        <v>0.9064146686587096</v>
       </c>
     </row>
     <row r="4">
@@ -2673,17 +3403,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1572152382704014</v>
+        <v>0.1344235686349876</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2699667541506972</v>
+        <v>0.291328794478211</v>
       </c>
       <c r="G4" t="n">
-        <v>0.931474143556974</v>
+        <v>0.9081081587271729</v>
       </c>
     </row>
     <row r="5">
@@ -2694,27 +3424,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1699060493429148</v>
+        <v>0.1393313676699542</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3267083384685832</v>
+        <v>0.3003800226805455</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7677125308987536</v>
+        <v>0.6903502296784195</v>
       </c>
     </row>
     <row r="6">
@@ -2725,27 +3455,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1215889158640626</v>
+        <v>0.09459896723790603</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2314808735537284</v>
+        <v>0.2390065294631369</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9214534326435898</v>
+        <v>0.7977744695361679</v>
       </c>
     </row>
     <row r="7">
@@ -2770,13 +3500,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1313600924709181</v>
+        <v>0.1143157599296068</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2729993572537679</v>
+        <v>0.2766389994472205</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8600487581918407</v>
+        <v>0.633856676927821</v>
       </c>
     </row>
     <row r="8">
@@ -2801,45 +3531,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1764789212357702</v>
+        <v>0.1410223668516979</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3725397253633281</v>
+        <v>0.3333339974290856</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9243029822767175</v>
+        <v>0.8909280568780844</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>UC3.2.1_TC1</t>
+          <t>UC3.2_TC1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0.190015533466694</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3413652379852757</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.6918598332955899</v>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2849,27 +3573,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.125144981757211</v>
+        <v>0.092481120453292</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3294628226696942</v>
+        <v>0.3019884666684997</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8717237142898642</v>
+        <v>0.893889843775112</v>
       </c>
     </row>
     <row r="11">
@@ -2894,13 +3618,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2018785171297541</v>
+        <v>0.1434735472008356</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3396793618525686</v>
+        <v>0.3036414372992564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9154994355453789</v>
+        <v>0.9048641310496174</v>
       </c>
     </row>
     <row r="12">
@@ -2925,13 +3649,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1389662129565341</v>
+        <v>0.09645012114223925</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3026457252067112</v>
+        <v>0.2529545045623279</v>
       </c>
       <c r="G12" t="n">
-        <v>0.699926655141988</v>
+        <v>0.691370862864612</v>
       </c>
     </row>
     <row r="13">
@@ -2956,13 +3680,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.130915717401245</v>
+        <v>0.08993399093494622</v>
       </c>
       <c r="F13" t="n">
-        <v>0.290721687662401</v>
+        <v>0.2690207408326153</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6936901879229446</v>
+        <v>0.6850179607518823</v>
       </c>
     </row>
     <row r="14">
@@ -2987,13 +3711,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1473384106733774</v>
+        <v>0.0981770772598767</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2932815792964595</v>
+        <v>0.2739101815571823</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8550709593080587</v>
+        <v>0.8190121262613472</v>
       </c>
     </row>
     <row r="15">
@@ -3018,13 +3742,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1498701785195733</v>
+        <v>0.1009873426581653</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2952547686868131</v>
+        <v>0.2630476915997347</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8190076714746602</v>
+        <v>0.855512575144713</v>
       </c>
     </row>
     <row r="16">
@@ -3049,13 +3773,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1348668585801454</v>
+        <v>0.1013602641128808</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3020676661279283</v>
+        <v>0.2879849400220368</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9208390536171729</v>
+        <v>0.8587963305103545</v>
       </c>
     </row>
     <row r="17">
@@ -3066,27 +3790,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.2093277531430746</v>
+        <v>0.09578916373048774</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3325175104416962</v>
+        <v>0.2491919426004884</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9133313774258236</v>
+        <v>0.8988336871127024</v>
       </c>
     </row>
     <row r="18">
@@ -3111,13 +3835,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1156632959831088</v>
+        <v>0.09378996018278257</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2903995772013246</v>
+        <v>0.2461535555158222</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5868208288758379</v>
+        <v>0.6225818585643652</v>
       </c>
     </row>
     <row r="19">
@@ -3128,27 +3852,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1872952725396275</v>
+        <v>0.1658425703011601</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3395178758176217</v>
+        <v>0.2908983875687113</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6269196287002572</v>
+        <v>0.8743277846748765</v>
       </c>
     </row>
   </sheetData>
@@ -3157,6 +3881,305 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BLEU_score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Code_BLEU</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cosine_similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>UC1_TC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09449862466783621</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2208019981325697</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.863864912387353</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>UC1_TC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.03198671405589622</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2120389332380099</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6664320858164487</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>UC2.1_TC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1462234729907618</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2628006236281948</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9252854533554009</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>UC2.2_TC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1816204270030371</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.325260689965263</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6415992790103233</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>UC2.3_TC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.08737844542753467</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.274613427374613</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.884630376302008</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>UC2.4_TC1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.127469334499868</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2635909776352395</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5828405764307693</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>UC5_TC1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.09480860612339753</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3018908400269084</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.6947455504531581</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>UC6_TC1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1558610069341379</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3526538105939511</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7321028122853414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3224,13 +4247,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.06010144320982051</v>
+        <v>0.06002309290620027</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1835656965344488</v>
+        <v>0.2137885769057445</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6465310685918169</v>
+        <v>0.8327897064485852</v>
       </c>
     </row>
     <row r="3">
@@ -3246,22 +4269,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.03821712062510718</v>
+        <v>0.04500653599041117</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1736050408391118</v>
+        <v>0.1763580320785203</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9064146686587096</v>
+        <v>0.7577366593274246</v>
       </c>
     </row>
     <row r="4">
@@ -3286,13 +4309,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1344235686349876</v>
+        <v>0.1521646523552269</v>
       </c>
       <c r="F4" t="n">
-        <v>0.291328794478211</v>
+        <v>0.3319637977432719</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9081081587271729</v>
+        <v>0.6362074708931229</v>
       </c>
     </row>
     <row r="5">
@@ -3317,13 +4340,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1393313676699542</v>
+        <v>0.1436891122807403</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3003800226805455</v>
+        <v>0.321088244475365</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6903502296784195</v>
+        <v>0.6800681630750736</v>
       </c>
     </row>
     <row r="6">
@@ -3348,13 +4371,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.09459896723790603</v>
+        <v>0.07899881608984721</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2390065294631369</v>
+        <v>0.2411780472015264</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7977744695361679</v>
+        <v>0.7703984988613429</v>
       </c>
     </row>
     <row r="7">
@@ -3379,13 +4402,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1143157599296068</v>
+        <v>0.09413266105154956</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2766389994472205</v>
+        <v>0.2681050241625016</v>
       </c>
       <c r="G7" t="n">
-        <v>0.633856676927821</v>
+        <v>0.6086277154263944</v>
       </c>
     </row>
     <row r="8">
@@ -3396,43 +4419,43 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1410223668516979</v>
+        <v>0.2551855286176491</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3333339974290856</v>
+        <v>0.4020742385377298</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8909280568780844</v>
+        <v>0.9083710383433946</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>UC3.2_TC1</t>
+          <t>UC3.2.1_TC1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3440,9 +4463,15 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0.1770994089866544</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3065697598209665</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6722293099207788</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3452,27 +4481,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.092481120453292</v>
+        <v>0.1401184800643443</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3019884666684997</v>
+        <v>0.3110227473524679</v>
       </c>
       <c r="G10" t="n">
-        <v>0.893889843775112</v>
+        <v>0.8997683740126933</v>
       </c>
     </row>
     <row r="11">
@@ -3497,13 +4526,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1434735472008356</v>
+        <v>0.1991022788073536</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3036414372992564</v>
+        <v>0.3102768284083366</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9048641310496174</v>
+        <v>0.8915107757736361</v>
       </c>
     </row>
     <row r="12">
@@ -3514,12 +4543,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3528,13 +4557,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.09645012114223925</v>
+        <v>0.1235704956716785</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2529545045623279</v>
+        <v>0.2751388776119031</v>
       </c>
       <c r="G12" t="n">
-        <v>0.691370862864612</v>
+        <v>0.657042263976606</v>
       </c>
     </row>
     <row r="13">
@@ -3545,12 +4574,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3559,13 +4588,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.08993399093494622</v>
+        <v>0.1211459598520071</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2690207408326153</v>
+        <v>0.2740119028029336</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6850179607518823</v>
+        <v>0.6668553312442823</v>
       </c>
     </row>
     <row r="14">
@@ -3576,12 +4605,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3590,13 +4619,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.0981770772598767</v>
+        <v>0.1407571790928713</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2739101815571823</v>
+        <v>0.2924470879319078</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8190121262613472</v>
+        <v>0.6267870708289267</v>
       </c>
     </row>
     <row r="15">
@@ -3621,13 +4650,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1009873426581653</v>
+        <v>0.1285980532910151</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2630476915997347</v>
+        <v>0.2891449231316325</v>
       </c>
       <c r="G15" t="n">
-        <v>0.855512575144713</v>
+        <v>0.8257477823831507</v>
       </c>
     </row>
     <row r="16">
@@ -3638,12 +4667,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3652,13 +4681,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1013602641128808</v>
+        <v>0.1350330148043991</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2879849400220368</v>
+        <v>0.2767403357656455</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8587963305103545</v>
+        <v>0.6404359428358747</v>
       </c>
     </row>
     <row r="17">
@@ -3669,27 +4698,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.09578916373048774</v>
+        <v>0.20225288428756</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2491919426004884</v>
+        <v>0.3120289555429744</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8988336871127024</v>
+        <v>0.8891023575668759</v>
       </c>
     </row>
     <row r="18">
@@ -3700,27 +4729,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.09378996018278257</v>
+        <v>0.1331351526019934</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2461535555158222</v>
+        <v>0.3071939207585921</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6225818585643652</v>
+        <v>0.5760314784493452</v>
       </c>
     </row>
     <row r="19">
@@ -3741,17 +4770,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1658425703011601</v>
+        <v>0.1497660078850516</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2908983875687113</v>
+        <v>0.2725532076602558</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8743277846748765</v>
+        <v>0.8617551111896915</v>
       </c>
     </row>
   </sheetData>
@@ -3759,7 +4788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3858,13 +4887,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.03198671405589622</v>
+        <v>0.0320489473462495</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2120389332380099</v>
+        <v>0.2110322481398545</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6664320858164487</v>
+        <v>0.6722729327723853</v>
       </c>
     </row>
     <row r="4">
@@ -3920,13 +4949,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1816204270030371</v>
+        <v>0.1795648716112284</v>
       </c>
       <c r="F5" t="n">
-        <v>0.325260689965263</v>
+        <v>0.3251464775722211</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6415992790103233</v>
+        <v>0.6312113839971921</v>
       </c>
     </row>
     <row r="6">
@@ -4058,7 +5087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4117,22 +5146,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.06002309290620027</v>
+        <v>0.05823614108818598</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2137885769057445</v>
+        <v>0.1983215458382984</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8327897064485852</v>
+        <v>0.7892237459460902</v>
       </c>
     </row>
     <row r="3">
@@ -4148,22 +5177,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.04500653599041117</v>
+        <v>0.0282416407933045</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1763580320785203</v>
+        <v>0.1693435919612135</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7577366593274246</v>
+        <v>0.9635762266826113</v>
       </c>
     </row>
     <row r="4">
@@ -4179,22 +5208,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1521646523552269</v>
+        <v>0.1406053285037152</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3319637977432719</v>
+        <v>0.2951171082160937</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6362074708931229</v>
+        <v>0.1235091914340451</v>
       </c>
     </row>
     <row r="5">
@@ -4210,22 +5239,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1436891122807403</v>
+        <v>0.1689174524059005</v>
       </c>
       <c r="F5" t="n">
-        <v>0.321088244475365</v>
+        <v>0.3284234982330339</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6800681630750736</v>
+        <v>0.6199544459317843</v>
       </c>
     </row>
     <row r="6">
@@ -4241,22 +5270,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.07899881608984721</v>
+        <v>0.09584384498569481</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2411780472015264</v>
+        <v>0.2743266267075989</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7703984988613429</v>
+        <v>0.8611936227291009</v>
       </c>
     </row>
     <row r="7">
@@ -4272,22 +5301,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.09413266105154956</v>
+        <v>0.1103712366305038</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2681050241625016</v>
+        <v>0.2463298857568411</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6086277154263944</v>
+        <v>0.7301566224057848</v>
       </c>
     </row>
     <row r="8">
@@ -4303,22 +5332,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2551855286176491</v>
+        <v>0.1568990805389059</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4020742385377298</v>
+        <v>0.3493111683022194</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9083710383433946</v>
+        <v>0.842779073338177</v>
       </c>
     </row>
     <row r="9">
@@ -4343,13 +5372,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1770994089866544</v>
+        <v>0.1551375132818893</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3065697598209665</v>
+        <v>0.2855594344146958</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6722293099207788</v>
+        <v>0.6489182458047602</v>
       </c>
     </row>
     <row r="10">
@@ -4365,22 +5394,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1401184800643443</v>
+        <v>0.08417659076403987</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3110227473524679</v>
+        <v>0.2819721384249597</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8997683740126933</v>
+        <v>0.8960831210606059</v>
       </c>
     </row>
     <row r="11">
@@ -4391,12 +5420,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4405,13 +5434,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1991022788073536</v>
+        <v>0.1323595477880339</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3102768284083366</v>
+        <v>0.2985709681453748</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8915107757736361</v>
+        <v>0.9105266699298646</v>
       </c>
     </row>
     <row r="12">
@@ -4436,13 +5465,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1235704956716785</v>
+        <v>0.09528338574839093</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2751388776119031</v>
+        <v>0.2466395979611747</v>
       </c>
       <c r="G12" t="n">
-        <v>0.657042263976606</v>
+        <v>0.6802301810815002</v>
       </c>
     </row>
     <row r="13">
@@ -4467,13 +5496,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1211459598520071</v>
+        <v>0.09175487238184334</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2740119028029336</v>
+        <v>0.2556750986280383</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6668553312442823</v>
+        <v>0.6679287428194797</v>
       </c>
     </row>
     <row r="14">
@@ -4498,13 +5527,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1407571790928713</v>
+        <v>0.08676156056606386</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2924470879319078</v>
+        <v>0.2865468139027426</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6267870708289267</v>
+        <v>0.7093355249669493</v>
       </c>
     </row>
     <row r="15">
@@ -4529,13 +5558,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1285980532910151</v>
+        <v>0.08000260405525979</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2891449231316325</v>
+        <v>0.2538397078345891</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8257477823831507</v>
+        <v>0.9040031457786135</v>
       </c>
     </row>
     <row r="16">
@@ -4551,7 +5580,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4560,13 +5589,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1350330148043991</v>
+        <v>0.08465585553067155</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2767403357656455</v>
+        <v>0.3288543311365225</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6404359428358747</v>
+        <v>0.8916641153193877</v>
       </c>
     </row>
     <row r="17">
@@ -4582,22 +5611,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.20225288428756</v>
+        <v>0.1407452350768398</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3120289555429744</v>
+        <v>0.2878061442228339</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8891023575668759</v>
+        <v>0.897492258943114</v>
       </c>
     </row>
     <row r="18">
@@ -4608,12 +5637,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4622,13 +5651,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1331351526019934</v>
+        <v>0.09559305874661032</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3071939207585921</v>
+        <v>0.2925651577171319</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5760314784493452</v>
+        <v>0.5799204178006125</v>
       </c>
     </row>
     <row r="19">
@@ -4644,321 +5673,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1497660078850516</v>
+        <v>0.1387763462793593</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2725532076602558</v>
+        <v>0.3143198975649131</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8617551111896915</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>compilation_success</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>execution_without_error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>test_pass</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>BLEU_score</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Code_BLEU</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cosine_similarity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>UC1_TC1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.09449862466783621</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2208019981325697</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.863864912387353</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>UC1_TC2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0320489473462495</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2110322481398545</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.6722729327723853</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>UC2.1_TC1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1462234729907618</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2628006236281948</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9252854533554009</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>UC2.2_TC1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1795648716112284</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3251464775722211</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6312113839971921</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>UC2.3_TC2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0.08737844542753467</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.274613427374613</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.884630376302008</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>UC2.4_TC1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0.127469334499868</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2635909776352395</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5828405764307693</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>UC5_TC1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0.09480860612339753</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.3018908400269084</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.6947455504531581</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>UC6_TC1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1558610069341379</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3526538105939511</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7321028122853414</v>
+        <v>0.6853683780231075</v>
       </c>
     </row>
   </sheetData>
@@ -5025,22 +5755,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.05823614108818598</v>
+        <v>0.08434849886304036</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1983215458382984</v>
+        <v>0.2099719997849161</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7892237459460902</v>
+        <v>0.8047694415538189</v>
       </c>
     </row>
     <row r="3">
@@ -5056,22 +5786,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.0282416407933045</v>
+        <v>0.04826520173294598</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1693435919612135</v>
+        <v>0.1846728557195388</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9635762266826113</v>
+        <v>0.9181394228791255</v>
       </c>
     </row>
     <row r="4">
@@ -5087,22 +5817,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1406053285037152</v>
+        <v>0.1572152382704014</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2951171082160937</v>
+        <v>0.2699667541506972</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1235091914340451</v>
+        <v>0.931474143556974</v>
       </c>
     </row>
     <row r="5">
@@ -5113,12 +5843,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5127,13 +5857,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1689174524059005</v>
+        <v>0.1699060493429148</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3284234982330339</v>
+        <v>0.3267083384685832</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6199544459317843</v>
+        <v>0.7677125308987536</v>
       </c>
     </row>
     <row r="6">
@@ -5144,12 +5874,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5158,13 +5888,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.09584384498569481</v>
+        <v>0.1215889158640626</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2743266267075989</v>
+        <v>0.2314808735537284</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8611936227291009</v>
+        <v>0.9214534326435898</v>
       </c>
     </row>
     <row r="7">
@@ -5180,22 +5910,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1103712366305038</v>
+        <v>0.1313600924709181</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2463298857568411</v>
+        <v>0.2729993572537679</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7301566224057848</v>
+        <v>0.8600487581918407</v>
       </c>
     </row>
     <row r="8">
@@ -5206,12 +5936,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5220,13 +5950,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1568990805389059</v>
+        <v>0.1764789212357702</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3493111683022194</v>
+        <v>0.3725397253633281</v>
       </c>
       <c r="G8" t="n">
-        <v>0.842779073338177</v>
+        <v>0.9243029822767175</v>
       </c>
     </row>
     <row r="9">
@@ -5251,13 +5981,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1551375132818893</v>
+        <v>0.190015533466694</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2855594344146958</v>
+        <v>0.3413652379852757</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6489182458047602</v>
+        <v>0.6918598332955899</v>
       </c>
     </row>
     <row r="10">
@@ -5268,12 +5998,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -5282,13 +6012,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.08417659076403987</v>
+        <v>0.125144981757211</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2819721384249597</v>
+        <v>0.3294628226696942</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8960831210606059</v>
+        <v>0.8717237142898642</v>
       </c>
     </row>
     <row r="11">
@@ -5299,12 +6029,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -5313,13 +6043,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1323595477880339</v>
+        <v>0.2018785171297541</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2985709681453748</v>
+        <v>0.3396793618525686</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9105266699298646</v>
+        <v>0.9154994355453789</v>
       </c>
     </row>
     <row r="12">
@@ -5330,12 +6060,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -5344,13 +6074,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.09528338574839093</v>
+        <v>0.1389662129565341</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2466395979611747</v>
+        <v>0.3026457252067112</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6802301810815002</v>
+        <v>0.699926655141988</v>
       </c>
     </row>
     <row r="13">
@@ -5361,12 +6091,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -5375,13 +6105,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.09175487238184334</v>
+        <v>0.130915717401245</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2556750986280383</v>
+        <v>0.290721687662401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6679287428194797</v>
+        <v>0.6936901879229446</v>
       </c>
     </row>
     <row r="14">
@@ -5392,12 +6122,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5406,13 +6136,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.08676156056606386</v>
+        <v>0.1473384106733774</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2865468139027426</v>
+        <v>0.2932815792964595</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7093355249669493</v>
+        <v>0.8550709593080587</v>
       </c>
     </row>
     <row r="15">
@@ -5437,13 +6167,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.08000260405525979</v>
+        <v>0.1498701785195733</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2538397078345891</v>
+        <v>0.2952547686868131</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9040031457786135</v>
+        <v>0.8190076714746602</v>
       </c>
     </row>
     <row r="16">
@@ -5454,7 +6184,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5468,13 +6198,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.08465585553067155</v>
+        <v>0.1348668585801454</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3288543311365225</v>
+        <v>0.3020676661279283</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8916641153193877</v>
+        <v>0.9208390536171729</v>
       </c>
     </row>
     <row r="17">
@@ -5490,22 +6220,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1407452350768398</v>
+        <v>0.2093277531430746</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2878061442228339</v>
+        <v>0.3325175104416962</v>
       </c>
       <c r="G17" t="n">
-        <v>0.897492258943114</v>
+        <v>0.9133313774258236</v>
       </c>
     </row>
     <row r="18">
@@ -5521,22 +6251,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.09559305874661032</v>
+        <v>0.1156632959831088</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2925651577171319</v>
+        <v>0.2903995772013246</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5799204178006125</v>
+        <v>0.5868208288758379</v>
       </c>
     </row>
     <row r="19">
@@ -5547,12 +6277,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5561,13 +6291,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1387763462793593</v>
+        <v>0.1872952725396275</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3143198975649131</v>
+        <v>0.3395178758176217</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6853683780231075</v>
+        <v>0.6269196287002572</v>
       </c>
     </row>
   </sheetData>
@@ -5851,12 +6581,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -5877,17 +6607,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6190,7 +6920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6291,85 +7021,115 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>compilation_success_success_count</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>compilation_success_failure_count</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>compilation_success_total_count</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>execution_without_error_Yes_count</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>execution_without_error_Yes_percent</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>execution_without_error_Unknown_count</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>execution_without_error_Unknown_percent</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>execution_without_error_No_count</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>execution_without_error_No_percent</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>execution_without_error_success_rate</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_success_count</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>execution_without_error_failure_count</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>execution_without_error_total_count</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>test_pass_Unknown_count</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>test_pass_Unknown_percent</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>test_pass_No_count</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>test_pass_No_percent</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>test_pass_Yes_count</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>test_pass_Yes_percent</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>test_pass_success_rate</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_success_count</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>test_pass_failure_count</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>test_pass_total_count</t>
         </is>
@@ -6433,160 +7193,168 @@
         <v>72.22222222222221</v>
       </c>
       <c r="S2" t="n">
+        <v>13</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U2" t="n">
         <v>18</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>11</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>61.11111111111111</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>5</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>2</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AA2" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>61.11111111111111</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="n">
         <v>18</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AF2" t="n">
         <v>7</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AG2" t="n">
         <v>38.88888888888889</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AH2" t="n">
         <v>6</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AI2" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AJ2" t="n">
         <v>5</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AK2" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AL2" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AM2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO2" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1455803138850221</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2958474287357252</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8179216698665777</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.04082585294713778</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.04876478864841175</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.113259665592209</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.04826520173294598</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1846728557195388</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5868208288758379</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.2093277531430746</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.3725397253633281</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.931474143556974</v>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>38.88888888888889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
-        <v>38.88888888888889</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6647,54 +7415,72 @@
         <v>44.44444444444444</v>
       </c>
       <c r="S4" t="n">
+        <v>8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U4" t="n">
         <v>18</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>7</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>38.88888888888889</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
         <v>10</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>55.55555555555556</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>1</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AA4" t="n">
         <v>5.555555555555555</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AB4" t="n">
         <v>38.88888888888889</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
         <v>18</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AF4" t="n">
         <v>11</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AG4" t="n">
         <v>61.11111111111111</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AH4" t="n">
         <v>5</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AI4" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AJ4" t="n">
         <v>2</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AK4" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AL4" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AM4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>18</v>
       </c>
     </row>
@@ -6754,36 +7540,54 @@
       <c r="S5" t="n">
         <v>8</v>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>8</v>
+      </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="n">
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="n">
         <v>8</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AA5" t="n">
         <v>100</v>
       </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>8</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AE5" t="n">
         <v>8</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AF5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG5" t="n">
         <v>100</v>
       </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -6845,54 +7649,72 @@
         <v>83.33333333333334</v>
       </c>
       <c r="S6" t="n">
+        <v>15</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
         <v>18</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>10</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>55.55555555555556</v>
       </c>
-      <c r="V6" t="n">
+      <c r="X6" t="n">
         <v>3</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
         <v>16.66666666666666</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>5</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AA6" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
         <v>55.55555555555556</v>
       </c>
-      <c r="AA6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8</v>
-      </c>
       <c r="AC6" t="n">
-        <v>44.44444444444444</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>5</v>
       </c>
       <c r="AE6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI6" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AJ6" t="n">
         <v>5</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AK6" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AL6" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AM6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
         <v>18</v>
       </c>
     </row>
@@ -6952,36 +7774,54 @@
       <c r="S7" t="n">
         <v>8</v>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>8</v>
+      </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="n">
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="n">
         <v>8</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AA7" t="n">
         <v>100</v>
       </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
         <v>8</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AE7" t="n">
         <v>8</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AF7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG7" t="n">
         <v>100</v>
       </c>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -7043,148 +7883,592 @@
         <v>94.44444444444444</v>
       </c>
       <c r="S8" t="n">
+        <v>17</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
         <v>18</v>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="n">
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="n">
         <v>2</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>16</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AA8" t="n">
         <v>88.88888888888889</v>
       </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE8" t="n">
         <v>18</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AF8" t="n">
         <v>18</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AG8" t="n">
         <v>100</v>
       </c>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>0.1455803138850221</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>0.2958474287357252</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.8179216698665777</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>0.04082585294713778</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>0.04876478864841175</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>0.113259665592209</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>0.04826520173294598</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>0.1846728557195388</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>0.5868208288758379</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>0.2093277531430746</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L10" t="n">
         <v>0.3725397253633281</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M10" t="n">
         <v>0.931474143556974</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N10" t="n">
         <v>7</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O10" t="n">
         <v>38.88888888888889</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>11</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>61.11111111111111</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R10" t="n">
         <v>38.88888888888889</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S10" t="n">
+        <v>7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>11</v>
+      </c>
+      <c r="U10" t="n">
         <v>18</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V10" t="n">
         <v>6</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W10" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="V9" t="n">
+      <c r="X10" t="n">
         <v>11</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y10" t="n">
         <v>61.11111111111111</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z10" t="n">
         <v>1</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AA10" t="n">
         <v>5.555555555555555</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AB10" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AC10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="n">
         <v>18</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AF10" t="n">
         <v>12</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AG10" t="n">
         <v>66.66666666666666</v>
       </c>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="n">
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="n">
         <v>6</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AK10" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AL10" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AM10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1455803138850221</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2958474287357252</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8179216698665777</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.04082585294713778</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.04876478864841175</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.113259665592209</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.04826520173294598</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1846728557195388</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5868208288758379</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2093277531430746</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.3725397253633281</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.931474143556974</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="R12" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="S12" t="n">
+        <v>8</v>
+      </c>
+      <c r="T12" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" t="n">
+        <v>18</v>
+      </c>
+      <c r="V12" t="n">
+        <v>8</v>
+      </c>
+      <c r="W12" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
